--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r112_I2_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r112_I2_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1756" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -448,10 +460,10 @@
       <c r="I11">
         <f>((C11-C10)^2+(D11- D10)^2)^.5</f>
       </c>
-      <c r="J11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K11" s="2" t="s">
+      <c r="J11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L11" t="n">
@@ -495,28 +507,28 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s" s="2">
+      <c r="A13" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B13" t="s" s="2">
+      <c r="B13" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C13" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D13" t="s" s="2">
+      <c r="C13" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E13" t="s" s="2">
+      <c r="E13" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F13" t="s" s="2">
+      <c r="F13" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G13" t="s" s="2">
+      <c r="G13" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H13" t="s" s="2">
+      <c r="H13" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -541,28 +553,28 @@
       </c>
     </row>
     <row r="15">
-      <c r="B15" t="s" s="2">
+      <c r="B15" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C15" t="s" s="2">
+      <c r="C15" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D15" t="s" s="2">
+      <c r="D15" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E15" t="s" s="2">
+      <c r="E15" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F15" t="s" s="2">
+      <c r="F15" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G15" t="s" s="2">
+      <c r="G15" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H15" t="s" s="2">
+      <c r="H15" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I15" t="s" s="2">
+      <c r="I15" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -882,10 +894,10 @@
       <c r="I26">
         <f>((C26-C25)^2+(D26- D25)^2)^.5</f>
       </c>
-      <c r="J26" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K26" s="2" t="s">
+      <c r="J26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K26" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L26" t="n">
@@ -929,28 +941,28 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s" s="2">
+      <c r="A28" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B28" t="s" s="2">
+      <c r="B28" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C28" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D28" t="s" s="2">
+      <c r="C28" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D28" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E28" t="s" s="2">
+      <c r="E28" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F28" t="s" s="2">
+      <c r="F28" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G28" t="s" s="2">
+      <c r="G28" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H28" t="s" s="2">
+      <c r="H28" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -975,28 +987,28 @@
       </c>
     </row>
     <row r="30">
-      <c r="B30" t="s" s="2">
+      <c r="B30" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C30" t="s" s="2">
+      <c r="C30" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D30" t="s" s="2">
+      <c r="D30" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E30" t="s" s="2">
+      <c r="E30" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F30" t="s" s="2">
+      <c r="F30" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G30" t="s" s="2">
+      <c r="G30" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H30" t="s" s="2">
+      <c r="H30" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I30" t="s" s="2">
+      <c r="I30" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1200,10 +1212,10 @@
       <c r="I37">
         <f>((C37-C36)^2+(D37- D36)^2)^.5</f>
       </c>
-      <c r="J37" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K37" s="2" t="s">
+      <c r="J37" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K37" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L37" t="n">
@@ -1247,28 +1259,28 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="s" s="2">
+      <c r="A39" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B39" t="s" s="2">
+      <c r="B39" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C39" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D39" t="s" s="2">
+      <c r="C39" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D39" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E39" t="s" s="2">
+      <c r="E39" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F39" t="s" s="2">
+      <c r="F39" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G39" t="s" s="2">
+      <c r="G39" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H39" t="s" s="2">
+      <c r="H39" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1293,28 +1305,28 @@
       </c>
     </row>
     <row r="41">
-      <c r="B41" t="s" s="2">
+      <c r="B41" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C41" t="s" s="2">
+      <c r="C41" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D41" t="s" s="2">
+      <c r="D41" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E41" t="s" s="2">
+      <c r="E41" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F41" t="s" s="2">
+      <c r="F41" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G41" t="s" s="2">
+      <c r="G41" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H41" t="s" s="2">
+      <c r="H41" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I41" t="s" s="2">
+      <c r="I41" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1518,10 +1530,10 @@
       <c r="I48">
         <f>((C48-C47)^2+(D48- D47)^2)^.5</f>
       </c>
-      <c r="J48" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K48" s="2" t="s">
+      <c r="J48" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K48" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L48" t="n">
@@ -1565,28 +1577,28 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="s" s="2">
+      <c r="A50" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B50" t="s" s="2">
+      <c r="B50" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C50" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D50" t="s" s="2">
+      <c r="C50" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D50" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E50" t="s" s="2">
+      <c r="E50" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F50" t="s" s="2">
+      <c r="F50" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G50" t="s" s="2">
+      <c r="G50" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H50" t="s" s="2">
+      <c r="H50" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1611,28 +1623,28 @@
       </c>
     </row>
     <row r="52">
-      <c r="B52" t="s" s="2">
+      <c r="B52" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C52" t="s" s="2">
+      <c r="C52" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D52" t="s" s="2">
+      <c r="D52" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E52" t="s" s="2">
+      <c r="E52" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F52" t="s" s="2">
+      <c r="F52" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G52" t="s" s="2">
+      <c r="G52" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H52" t="s" s="2">
+      <c r="H52" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I52" t="s" s="2">
+      <c r="I52" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1807,10 +1819,10 @@
       <c r="I58">
         <f>((C58-C57)^2+(D58- D57)^2)^.5</f>
       </c>
-      <c r="J58" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K58" s="2" t="s">
+      <c r="J58" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K58" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L58" t="n">
@@ -1854,28 +1866,28 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="s" s="2">
+      <c r="A60" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B60" t="s" s="2">
+      <c r="B60" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C60" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D60" t="s" s="2">
+      <c r="C60" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D60" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E60" t="s" s="2">
+      <c r="E60" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F60" t="s" s="2">
+      <c r="F60" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G60" t="s" s="2">
+      <c r="G60" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H60" t="s" s="2">
+      <c r="H60" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1900,28 +1912,28 @@
       </c>
     </row>
     <row r="62">
-      <c r="B62" t="s" s="2">
+      <c r="B62" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C62" t="s" s="2">
+      <c r="C62" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D62" t="s" s="2">
+      <c r="D62" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E62" t="s" s="2">
+      <c r="E62" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F62" t="s" s="2">
+      <c r="F62" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G62" t="s" s="2">
+      <c r="G62" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H62" t="s" s="2">
+      <c r="H62" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I62" t="s" s="2">
+      <c r="I62" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2096,10 +2108,10 @@
       <c r="I68">
         <f>((C68-C67)^2+(D68- D67)^2)^.5</f>
       </c>
-      <c r="J68" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K68" s="2" t="s">
+      <c r="J68" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K68" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L68" t="n">
@@ -2143,28 +2155,28 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="s" s="2">
+      <c r="A70" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B70" t="s" s="2">
+      <c r="B70" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C70" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D70" t="s" s="2">
+      <c r="C70" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D70" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E70" t="s" s="2">
+      <c r="E70" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F70" t="s" s="2">
+      <c r="F70" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G70" t="s" s="2">
+      <c r="G70" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H70" t="s" s="2">
+      <c r="H70" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2189,28 +2201,28 @@
       </c>
     </row>
     <row r="72">
-      <c r="B72" t="s" s="2">
+      <c r="B72" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C72" t="s" s="2">
+      <c r="C72" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D72" t="s" s="2">
+      <c r="D72" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E72" t="s" s="2">
+      <c r="E72" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F72" t="s" s="2">
+      <c r="F72" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G72" t="s" s="2">
+      <c r="G72" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H72" t="s" s="2">
+      <c r="H72" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I72" t="s" s="2">
+      <c r="I72" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2443,10 +2455,10 @@
       <c r="I80">
         <f>((C80-C79)^2+(D80- D79)^2)^.5</f>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K80" s="2" t="s">
+      <c r="J80" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K80" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L80" t="n">
@@ -2490,28 +2502,28 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="s" s="2">
+      <c r="A82" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B82" t="s" s="2">
+      <c r="B82" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C82" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D82" t="s" s="2">
+      <c r="C82" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D82" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E82" t="s" s="2">
+      <c r="E82" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F82" t="s" s="2">
+      <c r="F82" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G82" t="s" s="2">
+      <c r="G82" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H82" t="s" s="2">
+      <c r="H82" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2536,28 +2548,28 @@
       </c>
     </row>
     <row r="84">
-      <c r="B84" t="s" s="2">
+      <c r="B84" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C84" t="s" s="2">
+      <c r="C84" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D84" t="s" s="2">
+      <c r="D84" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E84" t="s" s="2">
+      <c r="E84" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F84" t="s" s="2">
+      <c r="F84" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G84" t="s" s="2">
+      <c r="G84" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H84" t="s" s="2">
+      <c r="H84" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I84" t="s" s="2">
+      <c r="I84" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2761,10 +2773,10 @@
       <c r="I91">
         <f>((C91-C90)^2+(D91- D90)^2)^.5</f>
       </c>
-      <c r="J91" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K91" s="2" t="s">
+      <c r="J91" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K91" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L91" t="n">
@@ -2808,28 +2820,28 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="s" s="2">
+      <c r="A93" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B93" t="s" s="2">
+      <c r="B93" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C93" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D93" t="s" s="2">
+      <c r="C93" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D93" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E93" t="s" s="2">
+      <c r="E93" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F93" t="s" s="2">
+      <c r="F93" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G93" t="s" s="2">
+      <c r="G93" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H93" t="s" s="2">
+      <c r="H93" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2854,28 +2866,28 @@
       </c>
     </row>
     <row r="95">
-      <c r="B95" t="s" s="2">
+      <c r="B95" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C95" t="s" s="2">
+      <c r="C95" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D95" t="s" s="2">
+      <c r="D95" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E95" t="s" s="2">
+      <c r="E95" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F95" t="s" s="2">
+      <c r="F95" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G95" t="s" s="2">
+      <c r="G95" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H95" t="s" s="2">
+      <c r="H95" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I95" t="s" s="2">
+      <c r="I95" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3137,10 +3149,10 @@
       <c r="I104">
         <f>((C104-C103)^2+(D104- D103)^2)^.5</f>
       </c>
-      <c r="J104" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K104" s="2" t="s">
+      <c r="J104" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K104" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L104" t="n">
@@ -3184,28 +3196,28 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="s" s="2">
+      <c r="A106" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B106" t="s" s="2">
+      <c r="B106" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C106" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D106" t="s" s="2">
+      <c r="C106" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D106" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E106" t="s" s="2">
+      <c r="E106" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F106" t="s" s="2">
+      <c r="F106" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G106" t="s" s="2">
+      <c r="G106" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H106" t="s" s="2">
+      <c r="H106" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3230,28 +3242,28 @@
       </c>
     </row>
     <row r="108">
-      <c r="B108" t="s" s="2">
+      <c r="B108" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C108" t="s" s="2">
+      <c r="C108" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D108" t="s" s="2">
+      <c r="D108" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E108" t="s" s="2">
+      <c r="E108" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F108" t="s" s="2">
+      <c r="F108" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G108" t="s" s="2">
+      <c r="G108" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H108" t="s" s="2">
+      <c r="H108" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I108" t="s" s="2">
+      <c r="I108" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3455,10 +3467,10 @@
       <c r="I115">
         <f>((C115-C114)^2+(D115- D114)^2)^.5</f>
       </c>
-      <c r="J115" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K115" s="2" t="s">
+      <c r="J115" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K115" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L115" t="n">
@@ -3502,28 +3514,28 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="s" s="2">
+      <c r="A117" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B117" t="s" s="2">
+      <c r="B117" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C117" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D117" t="s" s="2">
+      <c r="C117" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D117" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E117" t="s" s="2">
+      <c r="E117" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F117" t="s" s="2">
+      <c r="F117" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G117" t="s" s="2">
+      <c r="G117" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H117" t="s" s="2">
+      <c r="H117" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3548,28 +3560,28 @@
       </c>
     </row>
     <row r="119">
-      <c r="B119" t="s" s="2">
+      <c r="B119" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C119" t="s" s="2">
+      <c r="C119" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D119" t="s" s="2">
+      <c r="D119" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E119" t="s" s="2">
+      <c r="E119" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F119" t="s" s="2">
+      <c r="F119" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G119" t="s" s="2">
+      <c r="G119" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H119" t="s" s="2">
+      <c r="H119" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I119" t="s" s="2">
+      <c r="I119" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3744,10 +3756,10 @@
       <c r="I125">
         <f>((C125-C124)^2+(D125- D124)^2)^.5</f>
       </c>
-      <c r="J125" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K125" s="2" t="s">
+      <c r="J125" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K125" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L125" t="n">
@@ -3791,28 +3803,28 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="s" s="2">
+      <c r="A127" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B127" t="s" s="2">
+      <c r="B127" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C127" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D127" t="s" s="2">
+      <c r="C127" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D127" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E127" t="s" s="2">
+      <c r="E127" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F127" t="s" s="2">
+      <c r="F127" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G127" t="s" s="2">
+      <c r="G127" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H127" t="s" s="2">
+      <c r="H127" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3837,28 +3849,28 @@
       </c>
     </row>
     <row r="129">
-      <c r="B129" t="s" s="2">
+      <c r="B129" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C129" t="s" s="2">
+      <c r="C129" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D129" t="s" s="2">
+      <c r="D129" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E129" t="s" s="2">
+      <c r="E129" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F129" t="s" s="2">
+      <c r="F129" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G129" t="s" s="2">
+      <c r="G129" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H129" t="s" s="2">
+      <c r="H129" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I129" t="s" s="2">
+      <c r="I129" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4033,10 +4045,10 @@
       <c r="I135">
         <f>((C135-C134)^2+(D135- D134)^2)^.5</f>
       </c>
-      <c r="J135" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K135" s="2" t="s">
+      <c r="J135" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K135" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L135" t="n">
@@ -4080,28 +4092,28 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="s" s="2">
+      <c r="A137" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B137" t="s" s="2">
+      <c r="B137" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C137" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D137" t="s" s="2">
+      <c r="C137" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D137" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E137" t="s" s="2">
+      <c r="E137" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F137" t="s" s="2">
+      <c r="F137" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G137" t="s" s="2">
+      <c r="G137" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H137" t="s" s="2">
+      <c r="H137" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4126,28 +4138,28 @@
       </c>
     </row>
     <row r="139">
-      <c r="B139" t="s" s="2">
+      <c r="B139" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C139" t="s" s="2">
+      <c r="C139" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D139" t="s" s="2">
+      <c r="D139" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E139" t="s" s="2">
+      <c r="E139" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F139" t="s" s="2">
+      <c r="F139" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G139" t="s" s="2">
+      <c r="G139" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H139" t="s" s="2">
+      <c r="H139" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I139" t="s" s="2">
+      <c r="I139" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4322,10 +4334,10 @@
       <c r="I145">
         <f>((C145-C144)^2+(D145- D144)^2)^.5</f>
       </c>
-      <c r="J145" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K145" s="2" t="s">
+      <c r="J145" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K145" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L145" t="n">
@@ -4369,28 +4381,28 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="s" s="2">
+      <c r="A147" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B147" t="s" s="2">
+      <c r="B147" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C147" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D147" t="s" s="2">
+      <c r="C147" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D147" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E147" t="s" s="2">
+      <c r="E147" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F147" t="s" s="2">
+      <c r="F147" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G147" t="s" s="2">
+      <c r="G147" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H147" t="s" s="2">
+      <c r="H147" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4415,28 +4427,28 @@
       </c>
     </row>
     <row r="149">
-      <c r="B149" t="s" s="2">
+      <c r="B149" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C149" t="s" s="2">
+      <c r="C149" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D149" t="s" s="2">
+      <c r="D149" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E149" t="s" s="2">
+      <c r="E149" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F149" t="s" s="2">
+      <c r="F149" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G149" t="s" s="2">
+      <c r="G149" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H149" t="s" s="2">
+      <c r="H149" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I149" t="s" s="2">
+      <c r="I149" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4611,10 +4623,10 @@
       <c r="I155">
         <f>((C155-C154)^2+(D155- D154)^2)^.5</f>
       </c>
-      <c r="J155" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K155" s="2" t="s">
+      <c r="J155" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K155" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L155" t="n">
@@ -4658,28 +4670,28 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="s" s="2">
+      <c r="A157" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B157" t="s" s="2">
+      <c r="B157" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C157" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D157" t="s" s="2">
+      <c r="C157" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D157" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E157" t="s" s="2">
+      <c r="E157" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F157" t="s" s="2">
+      <c r="F157" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G157" t="s" s="2">
+      <c r="G157" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H157" t="s" s="2">
+      <c r="H157" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4704,28 +4716,28 @@
       </c>
     </row>
     <row r="159">
-      <c r="B159" t="s" s="2">
+      <c r="B159" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C159" t="s" s="2">
+      <c r="C159" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D159" t="s" s="2">
+      <c r="D159" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E159" t="s" s="2">
+      <c r="E159" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F159" t="s" s="2">
+      <c r="F159" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G159" t="s" s="2">
+      <c r="G159" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H159" t="s" s="2">
+      <c r="H159" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I159" t="s" s="2">
+      <c r="I159" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4900,10 +4912,10 @@
       <c r="I165">
         <f>((C165-C164)^2+(D165- D164)^2)^.5</f>
       </c>
-      <c r="J165" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K165" s="2" t="s">
+      <c r="J165" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K165" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L165" t="n">
@@ -4947,28 +4959,28 @@
       </c>
     </row>
     <row r="167">
-      <c r="A167" t="s" s="2">
+      <c r="A167" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B167" t="s" s="2">
+      <c r="B167" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C167" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D167" t="s" s="2">
+      <c r="C167" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D167" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E167" t="s" s="2">
+      <c r="E167" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F167" t="s" s="2">
+      <c r="F167" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G167" t="s" s="2">
+      <c r="G167" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H167" t="s" s="2">
+      <c r="H167" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4993,28 +5005,28 @@
       </c>
     </row>
     <row r="169">
-      <c r="B169" t="s" s="2">
+      <c r="B169" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C169" t="s" s="2">
+      <c r="C169" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D169" t="s" s="2">
+      <c r="D169" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E169" t="s" s="2">
+      <c r="E169" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F169" t="s" s="2">
+      <c r="F169" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G169" t="s" s="2">
+      <c r="G169" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H169" t="s" s="2">
+      <c r="H169" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I169" t="s" s="2">
+      <c r="I169" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5189,10 +5201,10 @@
       <c r="I175">
         <f>((C175-C174)^2+(D175- D174)^2)^.5</f>
       </c>
-      <c r="J175" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K175" s="2" t="s">
+      <c r="J175" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K175" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L175" t="n">
@@ -5236,28 +5248,28 @@
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="s" s="2">
+      <c r="A177" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B177" t="s" s="2">
+      <c r="B177" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C177" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D177" t="s" s="2">
+      <c r="C177" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D177" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E177" t="s" s="2">
+      <c r="E177" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F177" t="s" s="2">
+      <c r="F177" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G177" t="s" s="2">
+      <c r="G177" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H177" t="s" s="2">
+      <c r="H177" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5282,28 +5294,28 @@
       </c>
     </row>
     <row r="179">
-      <c r="B179" t="s" s="2">
+      <c r="B179" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C179" t="s" s="2">
+      <c r="C179" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D179" t="s" s="2">
+      <c r="D179" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E179" t="s" s="2">
+      <c r="E179" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F179" t="s" s="2">
+      <c r="F179" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G179" t="s" s="2">
+      <c r="G179" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H179" t="s" s="2">
+      <c r="H179" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I179" t="s" s="2">
+      <c r="I179" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5449,10 +5461,10 @@
       <c r="I184">
         <f>((C184-C183)^2+(D184- D183)^2)^.5</f>
       </c>
-      <c r="J184" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K184" s="2" t="s">
+      <c r="J184" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K184" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L184" t="n">
@@ -5496,28 +5508,28 @@
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="s" s="2">
+      <c r="A186" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B186" t="s" s="2">
+      <c r="B186" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C186" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D186" t="s" s="2">
+      <c r="C186" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D186" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E186" t="s" s="2">
+      <c r="E186" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F186" t="s" s="2">
+      <c r="F186" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G186" t="s" s="2">
+      <c r="G186" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H186" t="s" s="2">
+      <c r="H186" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5542,28 +5554,28 @@
       </c>
     </row>
     <row r="188">
-      <c r="B188" t="s" s="2">
+      <c r="B188" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C188" t="s" s="2">
+      <c r="C188" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D188" t="s" s="2">
+      <c r="D188" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E188" t="s" s="2">
+      <c r="E188" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F188" t="s" s="2">
+      <c r="F188" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G188" t="s" s="2">
+      <c r="G188" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H188" t="s" s="2">
+      <c r="H188" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I188" t="s" s="2">
+      <c r="I188" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5651,10 +5663,10 @@
       <c r="I191">
         <f>((C191-C190)^2+(D191- D190)^2)^.5</f>
       </c>
-      <c r="J191" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K191" s="2" t="s">
+      <c r="J191" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K191" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L191" t="n">
